--- a/VRSS_Ref/test_REFF/reff-basic_study_design.xlsx
+++ b/VRSS_Ref/test_REFF/reff-basic_study_design.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/liualg/Documents/GitHub/SeroNet/VRSS_Ref/test_REFF/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D817A2F8-26B1-734C-BE23-CEEF95115B66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EC3097F-A819-F84E-A4CB-C033E8185767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="820" yWindow="500" windowWidth="19220" windowHeight="20040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -501,10 +501,9 @@
         <r>
           <rPr>
             <sz val="11"/>
-            <color indexed="8"/>
+            <color rgb="FF000000"/>
             <rFont val="Aptos Narrow"/>
             <family val="2"/>
-            <scheme val="minor"/>
           </rPr>
           <t>The identifier should be unique to the ImmPort workspace to which the data will be uploaded.  The template column is associated with the following database table column planned_visit.user_defined_id and has data type varchar(100)</t>
         </r>
@@ -3768,8 +3767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="161" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A33" zoomScale="161" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
